--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_1_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_1_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.310929225757263e-12</v>
+        <v>4.825806421138168e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>2.310929225757263e-12</v>
+        <v>4.825806421138168e-12</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>63.26617588374211</v>
+        <v>54.47784873262754</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.91714197735067, 76.61520979013355]</t>
+          <t>[42.76133595832469, 66.19436150693039]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.186695269301708e-12</v>
+        <v>3.897770994854e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>2.186695269301708e-12</v>
+        <v>3.897770994854e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.402552876377424, 1.8553950606786564]</t>
+          <t>[1.3019212798660407, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.1321069687062</v>
+        <v>48.24900798820318</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.49667819420296, 64.76753574320944]</t>
+          <t>[40.65043580600482, 55.84758017040154]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.60740740740746</v>
+        <v>16.87631631631636</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.79947947947953</v>
+        <v>16.02578578578583</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.41533533533539</v>
+        <v>17.72684684684689</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.42000000000007</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.431388423929093e-14</v>
+        <v>1.114097702981098e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.431388423929093e-14</v>
+        <v>1.114097702981098e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.02312172712399</v>
+        <v>60.59590422484739</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[42.01924295833501, 66.02700049591297]</t>
+          <t>[44.352110301961, 76.83969814773377]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.027911089579447e-11</v>
+        <v>1.776617741811037e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>1.027911089579447e-11</v>
+        <v>1.776617741811037e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>2.044079304137503</v>
+        <v>2.018921405009658</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.8176582119868874, 2.270500396288118]</t>
+          <t>[1.729605565039427, 2.308237244979888]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,27 +709,27 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.14883667693171</v>
+        <v>53.34285758876469</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[39.60900387492231, 52.68866947894111]</t>
+          <t>[44.484244528968304, 62.20147064856107]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>15.12620620620625</v>
+        <v>15.17525525525529</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.31827827827832</v>
+        <v>14.1456656656657</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.93413413413418</v>
+        <v>16.20484484484488</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.42000000000007</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.885780586188048e-15</v>
+        <v>2.875477633779155e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>3.885780586188048e-15</v>
+        <v>2.875477633779155e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>63.48539995945433</v>
+        <v>62.92851256737306</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.08053582858753, 77.89026409032114]</t>
+          <t>[47.653596279744995, 78.20342885500114]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.89424032015495e-11</v>
+        <v>1.276780903225472e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.89424032015495e-11</v>
+        <v>1.276780903225472e-10</v>
       </c>
       <c r="P4" t="n">
-        <v>2.471763589310888</v>
+        <v>2.421447791055197</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.2453424971602716, 2.698184681461504]</t>
+          <t>[2.1824477493406578, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>55.65094921381007</v>
+        <v>54.84653794818048</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.18494514952036, 63.116953278099786]</t>
+          <t>[47.022980867500955, 62.67009502886001]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.60012012012016</v>
+        <v>13.74278278278281</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.79219219219223</v>
+        <v>12.89225225225228</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.40804804804809</v>
+        <v>14.59331331331335</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.42000000000007</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.915001987157666e-12</v>
+        <v>4.611311332780588e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>7.915001987157666e-12</v>
+        <v>4.611311332780588e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.97250497629685</v>
+        <v>59.08512008648854</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[39.67069585335405, 66.27431409923965]</t>
+          <t>[45.05539168642629, 73.11484848655078]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.214284394204014e-10</v>
+        <v>6.921663242565046e-11</v>
       </c>
       <c r="O5" t="n">
-        <v>3.214284394204014e-10</v>
+        <v>6.921663242565046e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>2.937184723176042</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.647868883205811, 3.2265005631462738]</t>
+          <t>[2.698184681461504, 3.25165846227412]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>55.58215672936885</v>
+        <v>58.48423234371752</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.61958734530359, 63.544726113434116]</t>
+          <t>[49.73386096484552, 67.23460372258953]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.93937937937942</v>
+        <v>11.77313313313316</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.90702702702706</v>
+        <v>10.78830830830834</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.97173173173177</v>
+        <v>12.75795795795799</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.047501307915866e-09</v>
+        <v>2.238209617644316e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>1.047501307915866e-09</v>
+        <v>2.238209617644316e-13</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>58.292501983493</v>
+        <v>60.25739061172973</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[41.69481545893143, 74.89018850805456]</t>
+          <t>[48.20220157537892, 72.31257964808053]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7.923655509500804e-09</v>
+        <v>4.212186155427844e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>7.923655509500804e-09</v>
+        <v>4.212186155427844e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.018947895341543</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.3208426848756973, -2.7170531058073886]</t>
+          <t>[-3.308263735311774, -2.8805794501383892]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,27 +967,27 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>57.40852145183062</v>
+        <v>55.09852233971888</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.502923307952884, 67.31411959570835]</t>
+          <t>[47.374715867549504, 62.82232881188826]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>11.92552552552574</v>
+        <v>12.20396396396418</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.73297297297316</v>
+        <v>11.3606006006008</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.11807807807831</v>
+        <v>13.04732732732756</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.466590182630512e-10</v>
+        <v>3.93751697913558e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>1.466590182630512e-10</v>
+        <v>3.93751697913558e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.14850866820338</v>
+        <v>53.91935573747271</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[39.10422802197027, 67.1927893144365]</t>
+          <t>[41.112094081415165, 66.72661739353026]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.230008317421039e-09</v>
+        <v>6.984701705903262e-11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.230008317421039e-09</v>
+        <v>6.984701705903262e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.012658420559581</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.72334258058935, 3.301974260529812]</t>
+          <t>[2.7107636310254275, 3.2390795127101963]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,27 +1053,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.30745946278576</v>
+        <v>55.32556749357759</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.86967000330844, 60.74524892226307]</t>
+          <t>[47.737109228409324, 62.914025758745865]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>12.91931931931955</v>
+        <v>13.04732732732756</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.77645645645667</v>
+        <v>12.00552552552574</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.06218218218243</v>
+        <v>14.08912912912938</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.331113576787175e-13</v>
+        <v>1.124511594952082e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>8.331113576787175e-13</v>
+        <v>1.124511594952082e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.88343234556589</v>
+        <v>62.30722883681198</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[47.655022766204354, 78.11184192492743]</t>
+          <t>[45.50660694267165, 79.10785073095231]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.197151267007257e-10</v>
+        <v>2.061335546699183e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>1.197151267007257e-10</v>
+        <v>2.061335546699183e-09</v>
       </c>
       <c r="P8" t="n">
         <v>2.761079429281119</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.5095004380026573, 3.012658420559581]</t>
+          <t>[2.4969214884387347, 3.0252373701235036]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,27 +1139,27 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.16478352642216</v>
+        <v>54.80388398002343</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.691499586133276, 65.63806746671105]</t>
+          <t>[45.675662821685165, 63.93210513836169]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>13.91311311311336</v>
+        <v>13.89069069069093</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.91931931931955</v>
+        <v>12.84888888888912</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.90690690690717</v>
+        <v>14.93249249249275</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.519336961270824e-10</v>
+        <v>6.560907372943348e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>2.519336961270824e-10</v>
+        <v>6.560907372943348e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>55.22585518334278</v>
+        <v>57.66744986638336</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.165195704692934, 72.28651466199263]</t>
+          <t>[41.55244740693908, 73.78245232582765]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.269469771640445e-08</v>
+        <v>5.022730453774216e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>5.269469771640445e-08</v>
+        <v>5.022730453774216e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>2.55981623625835</v>
+        <v>2.710763631025428</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.245342497160273, 2.8742899753564277]</t>
+          <t>[2.408868841491273, 3.012658420559582]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>54.48815590946105</v>
+        <v>54.57640694735886</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.429257387410786, 63.54705443151131]</t>
+          <t>[45.591795470196786, 63.56101842452094]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>14.70814814814841</v>
+        <v>14.08912912912938</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.46590590590614</v>
+        <v>12.89849849849872</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.95039039039067</v>
+        <v>15.27975975976003</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.34491323528141e-11</v>
+        <v>8.286704655802168e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.34491323528141e-11</v>
+        <v>8.286704655802168e-13</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>54.88860645532019</v>
+        <v>62.49850643161025</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[38.43294980209532, 71.34426310854505]</t>
+          <t>[46.28679678539021, 78.7102160778303]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.671074339488655e-08</v>
+        <v>7.601714813176841e-10</v>
       </c>
       <c r="O10" t="n">
-        <v>2.671074339488655e-08</v>
+        <v>7.601714813176841e-10</v>
       </c>
       <c r="P10" t="n">
-        <v>2.39628989192735</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.1069740519571187, 2.6856057318975814]</t>
+          <t>[2.132131951084965, 2.6604478327697336]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>55.10966009069494</v>
+        <v>57.91732778796447</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.65961500329566, 63.55970517809423]</t>
+          <t>[49.394596231851295, 66.44005934407765]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.35411411411439</v>
+        <v>15.32936936936964</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.2112512512515</v>
+        <v>14.28756756756782</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.49697697697727</v>
+        <v>16.37117117117146</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.151434834260726e-14</v>
+        <v>5.564548821723747e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>5.151434834260726e-14</v>
+        <v>5.564548821723747e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>62.43653491591672</v>
+        <v>57.7675996773284</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[47.215092220588275, 77.65797761124517]</t>
+          <t>[41.426776828680374, 74.10842252597642]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.438935637310124e-10</v>
+        <v>6.761792237242048e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>1.438935637310124e-10</v>
+        <v>6.761792237242048e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.207605648468504</v>
+        <v>2.257921446724196</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 2.446605690183043]</t>
+          <t>[1.9811845563178876, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>55.14505088399585</v>
+        <v>53.17447688465406</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.27198002501636, 63.01812174297534]</t>
+          <t>[44.764048700286125, 61.584905069021985]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>16.09945945945974</v>
+        <v>15.87507507507535</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.15535535535562</v>
+        <v>14.78366366366392</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.04356356356387</v>
+        <v>16.96648648648678</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.831867990631508e-14</v>
+        <v>1.023292561797007e-12</v>
       </c>
       <c r="I12" t="n">
-        <v>1.831867990631508e-14</v>
+        <v>1.023292561797007e-12</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>61.01798224854985</v>
+        <v>59.3307576607934</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[47.2289728122967, 74.806991684803]</t>
+          <t>[44.59744555135808, 74.06406977022873]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.684030692672422e-11</v>
+        <v>2.379587638046132e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.684030692672422e-11</v>
+        <v>2.379587638046132e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>1.981184556317888</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.7296055650394253, 2.23276354759635]</t>
+          <t>[1.7296055650394253, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>55.44736640648841</v>
+        <v>54.11771106017719</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.950771299169304, 62.94396151380752]</t>
+          <t>[45.889980564321526, 62.34544155603286]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16.99387387387418</v>
+        <v>16.91687687687718</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.00008008008036</v>
+        <v>15.87507507507535</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.98766766766799</v>
+        <v>17.958678678679</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.964251232308925e-12</v>
+        <v>6.641354133307686e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>4.964251232308925e-12</v>
+        <v>6.641354133307686e-13</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.56440102701139</v>
+        <v>53.97796438485651</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[43.203425116215, 69.92537693780778]</t>
+          <t>[41.802974153636214, 66.15295461607681]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.973821437521565e-11</v>
+        <v>1.593725151849412e-11</v>
       </c>
       <c r="O13" t="n">
-        <v>5.973821437521565e-11</v>
+        <v>1.593725151849412e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>1.679289766783733</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 1.9434477076261185]</t>
+          <t>[1.4906055233248878, 2.0189214050096567]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>55.08268489222615</v>
+        <v>55.1222170761482</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.80667117653247, 63.35869860791983]</t>
+          <t>[47.717265198011155, 62.52716895428524]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.18642642642675</v>
+        <v>17.85945945945977</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.14294294294325</v>
+        <v>16.81765765765795</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.22990990991025</v>
+        <v>18.90126126126159</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.263433802023428e-13</v>
+        <v>3.639311074721263e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>1.263433802023428e-13</v>
+        <v>3.639311074721263e-13</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>53.81931018281725</v>
+        <v>57.41588495578753</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[42.77571067439918, 64.86290969123532]</t>
+          <t>[45.78957786917246, 69.0421920424026]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.29034627006331e-13</v>
+        <v>6.148415110374117e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>9.29034627006331e-13</v>
+        <v>6.148415110374117e-13</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66671081721981</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 1.9057108589343494]</t>
+          <t>[1.3899739268135027, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>51.78943853838573</v>
+        <v>53.88636356747125</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.77687513200292, 58.80200194476854]</t>
+          <t>[46.157369763832584, 61.615357371109916]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>18.23611611611644</v>
+        <v>18.35555555555588</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.29201201201231</v>
+        <v>17.41297297297328</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.18022022022056</v>
+        <v>19.29813813813848</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_1_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_1_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.36000000000006</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.825806421138168e-12</v>
+        <v>7.672751323184457e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>4.825806421138168e-12</v>
+        <v>7.672751323184457e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.47784873262754</v>
+        <v>61.49586123777149</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[42.76133595832469, 66.19436150693039]</t>
+          <t>[48.68804969675088, 74.3036727787921]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.897770994854e-12</v>
+        <v>1.469269150788932e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>3.897770994854e-12</v>
+        <v>1.469269150788932e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3019212798660407, 1.7799213632951174]</t>
+          <t>[1.402552876377424, 1.8553950606786564]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>48.24900798820318</v>
+        <v>53.39952493276677</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[40.65043580600482, 55.84758017040154]</t>
+          <t>[45.2878173048887, 61.51123256064485]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.87631631631636</v>
+        <v>16.63703703703709</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.02578578578583</v>
+        <v>15.82766766766772</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.72684684684689</v>
+        <v>17.44640640640647</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.36000000000006</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.114097702981098e-11</v>
+        <v>1.063138466150804e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.114097702981098e-11</v>
+        <v>1.063138466150804e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.59590422484739</v>
+        <v>54.60507349101209</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[44.352110301961, 76.83969814773377]</t>
+          <t>[40.083249933804694, 69.12689704821949]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.776617741811037e-09</v>
+        <v>1.449880437931483e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>1.776617741811037e-09</v>
+        <v>1.449880437931483e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>2.018921405009658</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.729605565039427, 2.308237244979888]</t>
+          <t>[1.7044476659115793, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,27 +709,27 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.34285758876469</v>
+        <v>49.10235735374621</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.484244528968304, 62.20147064856107]</t>
+          <t>[41.14533190131907, 57.05938280617336]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>15.17525525525529</v>
+        <v>15.3330530530531</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.1456656656657</v>
+        <v>14.2988588588589</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.20484484484488</v>
+        <v>16.3672472472473</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.36000000000006</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.875477633779155e-14</v>
+        <v>1.365574320288943e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.875477633779155e-14</v>
+        <v>1.365574320288943e-13</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>62.92851256737306</v>
+        <v>58.33915062639088</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[47.653596279744995, 78.20342885500114]</t>
+          <t>[44.14979719878424, 72.52850405399751]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.276780903225472e-10</v>
+        <v>1.349353961899169e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.276780903225472e-10</v>
+        <v>1.349353961899169e-10</v>
       </c>
       <c r="P4" t="n">
-        <v>2.421447791055197</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.1824477493406578, 2.6604478327697354]</t>
+          <t>[2.1824477493406578, 2.6856057318975797]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>54.84653794818048</v>
+        <v>54.12256568184864</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.022980867500955, 62.67009502886001]</t>
+          <t>[46.52534773815146, 61.71978362554582]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.74278278278281</v>
+        <v>13.75927927927932</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.89225225225228</v>
+        <v>12.85997997998003</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.59331331331335</v>
+        <v>14.65857857857862</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.36000000000006</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.611311332780588e-12</v>
+        <v>1.161648555125794e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>4.611311332780588e-12</v>
+        <v>1.161648555125794e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>59.08512008648854</v>
+        <v>58.74158437561375</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[45.05539168642629, 73.11484848655078]</t>
+          <t>[43.75821788031699, 73.7249508709105]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.921663242565046e-11</v>
+        <v>4.883198290173141e-10</v>
       </c>
       <c r="O5" t="n">
-        <v>6.921663242565046e-11</v>
+        <v>4.883198290173141e-10</v>
       </c>
       <c r="P5" t="n">
-        <v>2.974921571867812</v>
+        <v>2.92460577361212</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.698184681461504, 3.25165846227412]</t>
+          <t>[2.6352899336418885, 3.213921613582352]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>58.48423234371752</v>
+        <v>58.54521361331121</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.73386096484552, 67.23460372258953]</t>
+          <t>[49.60670304956733, 67.4837241770551]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.77313313313316</v>
+        <v>12.00564564564568</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.78830830830834</v>
+        <v>10.97145145145148</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.75795795795799</v>
+        <v>13.03983983983988</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.238209617644316e-13</v>
+        <v>1.73527858748912e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>2.238209617644316e-13</v>
+        <v>1.73527858748912e-13</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>60.25739061172973</v>
+        <v>61.61820042037934</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[48.20220157537892, 72.31257964808053]</t>
+          <t>[48.33631394612334, 74.90008689463534]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.212186155427844e-13</v>
+        <v>4.168887457467463e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>4.212186155427844e-13</v>
+        <v>4.168887457467463e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.094421592725082</v>
+        <v>-2.981211046649773</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.308263735311774, -2.8805794501383892]</t>
+          <t>[-3.2076321388003888, -2.754789954499158]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>55.09852233971888</v>
+        <v>58.45296734396053</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.374715867549504, 62.82232881188826]</t>
+          <t>[50.62019528247788, 66.28573940544318]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.20396396396418</v>
+        <v>11.76222222222243</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.3606006006008</v>
+        <v>10.86888888888908</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.04732732732756</v>
+        <v>12.65555555555578</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.93751697913558e-12</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.93751697913558e-12</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.91935573747271</v>
+        <v>63.06843945746187</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[41.112094081415165, 66.72661739353026]</t>
+          <t>[51.52593524864051, 74.61094366628323]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.984701705903262e-11</v>
+        <v>2.375877272697835e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>6.984701705903262e-11</v>
+        <v>2.375877272697835e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.974921571867812</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.7107636310254275, 3.2390795127101963]</t>
+          <t>[2.7107636310254275, 3.113290017070965]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55.32556749357759</v>
+        <v>53.24939999011851</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.737109228409324, 62.914025758745865]</t>
+          <t>[46.27988110187096, 60.21891887836606]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.04732732732756</v>
+        <v>13.30074074074098</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.00552552552574</v>
+        <v>12.50666666666689</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.08912912912938</v>
+        <v>14.09481481481506</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.124511594952082e-11</v>
+        <v>9.570122472268849e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>1.124511594952082e-11</v>
+        <v>9.570122472268849e-14</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.30722883681198</v>
+        <v>60.84330492852835</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[45.50660694267165, 79.10785073095231]</t>
+          <t>[46.55508100508385, 75.13152885197286]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.061335546699183e-09</v>
+        <v>5.068545583242212e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>2.061335546699183e-09</v>
+        <v>5.068545583242212e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>2.761079429281119</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.4969214884387347, 3.0252373701235036]</t>
+          <t>[2.446605690183042, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,27 +1139,27 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.80388398002343</v>
+        <v>56.11143766060686</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.675662821685165, 63.93210513836169]</t>
+          <t>[48.422782810766876, 63.800092510446845]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.89069069069093</v>
+        <v>14.14444444444469</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.84888888888912</v>
+        <v>13.15185185185208</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.93249249249275</v>
+        <v>15.1370370370373</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.560907372943348e-11</v>
+        <v>5.444533712761768e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>6.560907372943348e-11</v>
+        <v>5.444533712761768e-13</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.66744986638336</v>
+        <v>58.02488224663767</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[41.55244740693908, 73.78245232582765]</t>
+          <t>[43.58453511311657, 72.46522938015877]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.022730453774216e-09</v>
+        <v>2.523667941289887e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>5.022730453774216e-09</v>
+        <v>2.523667941289887e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>2.710763631025428</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 3.012658420559582]</t>
+          <t>[2.3711319927995036, 2.8994478744842733]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>54.57640694735886</v>
+        <v>54.98764161385459</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.591795470196786, 63.56101842452094]</t>
+          <t>[47.24362767481854, 62.73165555289064]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.08912912912938</v>
+        <v>14.39259259259284</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.89849849849872</v>
+        <v>13.35037037037061</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.27975975976003</v>
+        <v>15.43481481481508</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.286704655802168e-13</v>
+        <v>6.501688076809842e-11</v>
       </c>
       <c r="I10" t="n">
-        <v>8.286704655802168e-13</v>
+        <v>6.501688076809842e-11</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>62.49850643161025</v>
+        <v>60.26567321682946</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[46.28679678539021, 78.7102160778303]</t>
+          <t>[41.68107038981687, 78.85027604384204]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.601714813176841e-10</v>
+        <v>5.064702079948802e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>7.601714813176841e-10</v>
+        <v>5.064702079948802e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>2.396289891927349</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.132131951084965, 2.6604478327697336]</t>
+          <t>[2.1824477493406578, 2.7610794292811187]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,27 +1311,27 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>57.91732778796447</v>
+        <v>56.37545794970165</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.394596231851295, 66.44005934407765]</t>
+          <t>[46.92020078157872, 65.83071511782458]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X10" t="n">
-        <v>15.32936936936964</v>
+        <v>15.03777777777804</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.28756756756782</v>
+        <v>13.89629629629654</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.37117117117146</v>
+        <v>16.17925925925954</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.564548821723747e-12</v>
+        <v>1.991296016967681e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>5.564548821723747e-12</v>
+        <v>1.991296016967681e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>57.7675996773284</v>
+        <v>60.35368056007198</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[41.426776828680374, 74.10842252597642]</t>
+          <t>[44.08256157927178, 76.62479954087217]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.761792237242048e-09</v>
+        <v>2.052547687370065e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>6.761792237242048e-09</v>
+        <v>2.052547687370065e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.257921446724196</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9811845563178876, 2.5346583371305043]</t>
+          <t>[1.9686056067539646, 2.4969214884387334]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.17447688465406</v>
+        <v>55.15705856357571</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.764048700286125, 61.584905069021985]</t>
+          <t>[46.6479254664197, 63.66619166073172]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>15.87507507507535</v>
+        <v>15.98074074074102</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.78366366366392</v>
+        <v>14.93851851851879</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.96648648648678</v>
+        <v>17.02296296296326</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.023292561797007e-12</v>
+        <v>1.036205565796422e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>1.023292561797007e-12</v>
+        <v>1.036205565796422e-10</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>59.3307576607934</v>
+        <v>50.45244191226973</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[44.59744555135808, 74.06406977022873]</t>
+          <t>[35.102550877445395, 65.80233294709407]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.379587638046132e-10</v>
+        <v>3.737501863554371e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>2.379587638046132e-10</v>
+        <v>3.737501863554371e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>1.993763505881811</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.7296055650394253, 2.257921446724196]</t>
+          <t>[1.7296055650394253, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>54.11771106017719</v>
+        <v>53.84737392695074</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.889980564321526, 62.34544155603286]</t>
+          <t>[45.70680861476213, 61.987939239139344]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16.91687687687718</v>
+        <v>16.72518518518548</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.87507507507535</v>
+        <v>15.48444444444472</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.958678678679</v>
+        <v>17.96592592592624</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>6.641354133307686e-13</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>6.641354133307686e-13</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>53.97796438485651</v>
+        <v>60.77516663234886</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[41.802974153636214, 66.15295461607681]</t>
+          <t>[48.769620637800884, 72.78071262689684]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.593725151849412e-11</v>
+        <v>2.822186928597148e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.593725151849412e-11</v>
+        <v>2.822186928597148e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.754763464167272</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 2.0189214050096567]</t>
+          <t>[1.4906055233248878, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>55.1222170761482</v>
+        <v>54.54631890206677</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.717265198011155, 62.52716895428524]</t>
+          <t>[47.13907044478452, 61.95356735934902]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.85945945945977</v>
+        <v>18.01555555555587</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.81765765765795</v>
+        <v>17.12222222222252</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.90126126126159</v>
+        <v>18.90888888888922</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.639311074721263e-13</v>
+        <v>8.049116928532385e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>3.639311074721263e-13</v>
+        <v>8.049116928532385e-14</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>57.41588495578753</v>
+        <v>61.49791589480098</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[45.78957786917246, 69.0421920424026]</t>
+          <t>[49.451161019131334, 73.54467077047062]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.148415110374117e-13</v>
+        <v>2.160494005920555e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>6.148415110374117e-13</v>
+        <v>2.160494005920555e-13</v>
       </c>
       <c r="P14" t="n">
-        <v>1.628973968528041</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.3899739268135027, 1.8679740102425795]</t>
+          <t>[1.3899739268135027, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>53.88636356747125</v>
+        <v>56.37984671556663</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.157369763832584, 61.615357371109916]</t>
+          <t>[48.47383124533742, 64.28586218579584]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>18.35555555555588</v>
+        <v>18.41259259259292</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.41297297297328</v>
+        <v>17.51925925925957</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.29813813813848</v>
+        <v>19.30592592592626</v>
       </c>
     </row>
   </sheetData>
